--- a/medicine/Enfance/Ernest_Fouinet/Ernest_Fouinet.xlsx
+++ b/medicine/Enfance/Ernest_Fouinet/Ernest_Fouinet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Fouinet (né Jean Fouinet le 23 février 1799 à Nantes[1] et mort le 1er décembre 1845 à Paris[2]) est un romancier et poète français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Fouinet (né Jean Fouinet le 23 février 1799 à Nantes et mort le 1er décembre 1845 à Paris) est un romancier et poète français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre de la Société asiatique de Paris, Fouinet, qui était employé au ministère des Finances, employait ses loisirs à traduire, en vers français, des poésies arabes, sanscrites, malaises, etc., en prose, les chefs-d’œuvre anglais, à collaborer, comme poète et prosateur, aux Cent-et-un, à la France littéraire, aux Annales romantiques, aux Keepsakes.
 Il se délassait ensuite de ses savantes études sur les langues orientales, par la composition de nouvelles romantiques et d’ouvrages destinés à la jeunesse. Victor Hugo, qui lui doit les traductions de l’arabe et du persan, citées dans plusieurs notes de ses Orientales, a rendu hommage à son talent poétique, ainsi que Sainte-Beuve, en lui dédiant une de ses Consolations.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Psara, élégie épique, Paris, Delaunay, 1824.
 La Stréga, Paris, Silvestre, 1832 ; rééd. Genève, Slatkine Reprints, 1973, disponible sur Gallica.
@@ -592,7 +608,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Antoine Laporte, Bibliographie contemporaine : histoire littéraire du dix-neuvième siècle, Paris F. Vieweg, 1888, p. 18.
 Ferdinand Natanael Staaff, La Littérature française depuis la formation de la langue jusqu'à nos jours : auteurs enlevés à la littérature depuis la Restauration (1830-1869), Paris, Didier et Cie, 1874, p. 1045.
